--- a/data/trans_dic/P12B1_1_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P12B1_1_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que requiere cuidados especiales &lt;16 años</t>
+          <t>Población que requiere cuidados especiales &lt;16 años (tasa de respuesta: 99,06%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -661,57 +710,87 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,87%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,69%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8,87%</t>
+          <t>0,55%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>0,51%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0,3%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>6,45%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>0,97%</t>
-        </is>
-      </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>7,35%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0,28%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>0,16%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0,17%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>0,22%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 9,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,66</t>
+          <t>0,0; 2,11</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,45; 23,79</t>
+          <t>0,0; 2,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,77</t>
+          <t>0,0; 3,42</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,28; 22,51</t>
+          <t>0,0; 1,7</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,85; 16,32</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,42</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,11</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 0,87</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,16</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>18,77%</t>
+          <t>2,61%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>34,6%</t>
+          <t>3,91%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>28,95%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>13,48%</t>
+          <t>5,22%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>10,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>23,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>14,95%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>22,99%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>14,58%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>29,73%</t>
+          <t>3,24%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>22,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>17,16%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>1,95%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>2,82%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>1,68%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>4,22%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,82; 48,81</t>
+          <t>0,51; 10,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>15,39; 58,07</t>
+          <t>1,47; 9,7</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>12,09; 58,52</t>
+          <t>0,82; 5,96</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,96; 36,06</t>
+          <t>1,81; 17,09</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,71; 22,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>13,7; 37,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,9; 28,63</t>
+          <t>0,46; 2,99</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>10,04; 40,27</t>
+          <t>0,83; 3,08</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,42; 32,29</t>
+          <t>0,53; 2,51</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>18,57; 45,97</t>
+          <t>1,6; 6,25</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>11,97; 42,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>8,84; 31,11</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>0,82; 5,71</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>1,57; 5,43</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>0,94; 3,77</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>2,35; 10,0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,46%</t>
+          <t>0,43%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>31,56%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,69%</t>
+          <t>0,39%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>13,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>18,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>13,74%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>32,52%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>8,44%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>23,36%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>11,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>16,24%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>0,71%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>0,85%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>0,57%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>2,23%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1203,99 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,55</t>
+          <t>0,0; 2,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,24; 73,74</t>
+          <t>0,0; 2,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 28,76</t>
+          <t>0,0; 1,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>0,98; 4,75</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,19; 32,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,75; 33,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,13; 27,3</t>
+          <t>0,31; 2,56</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>12,1; 61,15</t>
+          <t>0,38; 2,48</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,07; 19,07</t>
+          <t>0,27; 1,58</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>11,99; 47,31</t>
+          <t>0,98; 3,88</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,17; 21,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,91; 34,37</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>0,2; 1,8</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>0,38; 1,76</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>0,24; 1,14</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>1,35; 3,61</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>9,8%</t>
+          <t>0,19%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>22,51%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>16,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10,01%</t>
+          <t>0,4%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>7,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>11,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>7,64%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>14,03%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>8,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>16,32%</t>
+          <t>2,25%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>11,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>12,11%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0,1%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>1,18%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>1,27%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,2019 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,9; 31,61</t>
+          <t>0,0; 1,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,86; 39,0</t>
+          <t>0,24; 5,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,3; 37,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,27; 22,54</t>
+          <t>0,0; 2,39</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,17; 12,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,13; 16,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,03; 12,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>8,36; 23,05</t>
+          <t>0,28; 2,29</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,58; 18,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>10,84; 24,72</t>
+          <t>0,92; 5,06</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>7,12; 22,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>7,62; 18,93</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 0,49</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>0,4; 3,17</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>0,5; 2,54</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0,88%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1,87%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1,19%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2,39%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0,64%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1,14%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0,77%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>2,1%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>0,75%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>1,5%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>0,98%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>2,24%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0,28; 3,08</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0,84; 3,8</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0,54; 3,19</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>1,22; 5,6</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0,31; 1,09</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0,68; 1,78</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0,44; 1,44</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1,3; 3,08</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0,39; 1,61</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0,89; 2,49</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0,59; 1,87</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>1,53; 4,23</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que requiere cuidados especiales &lt;16 años (tasa de respuesta: 99,06%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>2767</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>2402</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>2134</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>1891</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>2134</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>1891</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>2767</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>2402</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 15212</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 11621</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 14419</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 10862</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>0; 10794</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>0; 12980</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>0; 14159</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>0; 12353</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>24363</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>47200</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>33844</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>54305</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>13250</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>21555</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>18809</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>34222</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>37612</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>68756</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>52653</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>88528</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>4781; 97763</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>17705; 117097</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>13267; 96551</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>18825; 177736</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>4593; 29731</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>10260; 37943</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>7962; 37839</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>16870; 66007</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>15798; 110105</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>38267; 132472</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>29546; 117994</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>49195; 209495</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>3053</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>4755</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>4292</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>19621</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>7396</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>10457</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>8530</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>18103</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>10449</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>15212</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>12822</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>37724</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 15257</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 19371</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 15148</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>8038; 38991</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2357; 19674</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>3592; 23298</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>3181; 18347</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>8576; 33919</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>2984; 26655</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>6690; 31362</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>5396; 25597</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>22948; 61084</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>2807</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>12467</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>4269</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>6655</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>21578</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>2807</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>19122</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>25847</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 16987</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>2025; 49157</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>0; 25719</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>2148; 17456</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>8860; 48643</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>0; 14060</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>6528; 51356</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>10236; 51825</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>30223</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>64422</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>40902</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>80598</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>22779</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>40558</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>27339</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>73903</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>53002</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>104980</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>68242</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>154501</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>9741; 105930</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>28940; 130635</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>18516; 109310</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>41058; 188965</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>11118; 39027</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>24269; 63451</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>15562; 51342</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>45722; 108394</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>27073; 113106</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>62606; 174607</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>41382; 130723</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>105788; 291910</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
